--- a/01.Data_Collection/all_directors_writers.xlsx
+++ b/01.Data_Collection/all_directors_writers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaemin/Documents/da.head()/Female-led-Korean-Films/01.Data_Collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80532AB5-1AC4-4242-9E03-4B035D49C1AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89E769C-0E72-1B48-827C-2C4C93397AE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8800" yWindow="460" windowWidth="19520" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8959,9 +8959,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI687"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" topLeftCell="A203" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X220" sqref="X220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -14874,17 +14874,17 @@
       <c r="I140" t="s">
         <v>2416</v>
       </c>
-      <c r="S140" s="3">
+      <c r="T140" s="3">
         <v>1</v>
       </c>
       <c r="U140" s="4" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="V140" s="4">
-        <v>20281789</v>
+        <v>20128942</v>
       </c>
       <c r="W140" s="4" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -18319,7 +18319,7 @@
       <c r="D220" t="s">
         <v>1761</v>
       </c>
-      <c r="E220">
+      <c r="F220">
         <v>1</v>
       </c>
       <c r="G220" t="s">
@@ -18329,9 +18329,9 @@
         <v>20238387</v>
       </c>
       <c r="I220" t="s">
-        <v>2415</v>
-      </c>
-      <c r="S220" s="3">
+        <v>2816</v>
+      </c>
+      <c r="T220" s="3">
         <v>1</v>
       </c>
       <c r="U220" s="3" t="s">
@@ -18341,7 +18341,7 @@
         <v>20238387</v>
       </c>
       <c r="W220" s="3" t="s">
-        <v>2415</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="221" spans="1:29">
